--- a/practices.xlsx
+++ b/practices.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="offensive" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7881" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7881" uniqueCount="169">
   <si>
     <t>date</t>
   </si>
@@ -161,7 +161,7 @@
     <t>fall camp practice #8</t>
   </si>
   <si>
-    <t>fall camp scrimmage #1</t>
+    <t>fall camp scrimmage 1</t>
   </si>
   <si>
     <t>full pads</t>
@@ -464,6 +464,9 @@
     <t>line games</t>
   </si>
   <si>
+    <t>fall camp scrimmage #1</t>
+  </si>
+  <si>
     <t>cougar full zone</t>
   </si>
   <si>
@@ -601,12 +604,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -629,8 +636,8 @@
   </sheetPr>
   <dimension ref="A1:K717"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C89" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C105" activeCellId="0" sqref="C105"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A111" activeCellId="0" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -719,7 +726,7 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <f aca="false">A2+E2/(24*60)</f>
-        <v>42947.7986111112</v>
+        <v>42947.7986111111</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -746,7 +753,7 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <f aca="false">A3+E3/(24*60)</f>
-        <v>42947.8020833334</v>
+        <v>42947.8020833333</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
@@ -800,7 +807,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <f aca="false">A5+E5/(24*60)</f>
-        <v>42947.8194444445</v>
+        <v>42947.8194444444</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>4</v>
@@ -886,7 +893,7 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <f aca="false">A8+E8/(24*60)</f>
-        <v>42947.8381944445</v>
+        <v>42947.8381944444</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>6</v>
@@ -1058,7 +1065,7 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <f aca="false">A14+E14/(24*60)</f>
-        <v>42948.6111111112</v>
+        <v>42948.6111111111</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -1085,7 +1092,7 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <f aca="false">A15+E15/(24*60)</f>
-        <v>42948.6145833334</v>
+        <v>42948.6145833333</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -1139,7 +1146,7 @@
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <f aca="false">A17+E17/(24*60)</f>
-        <v>42948.6319444445</v>
+        <v>42948.6319444444</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>4</v>
@@ -1225,7 +1232,7 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <f aca="false">A20+E20/(24*60)</f>
-        <v>42948.6506944445</v>
+        <v>42948.6506944444</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>6</v>
@@ -1338,7 +1345,7 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <f aca="false">A24+E24/(24*60)</f>
-        <v>42948.6784722223</v>
+        <v>42948.6784722222</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>27</v>
@@ -1397,7 +1404,7 @@
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <f aca="false">A26+E26/(24*60)</f>
-        <v>42949.4027777777</v>
+        <v>42949.4027777778</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
@@ -1451,7 +1458,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <f aca="false">A28+E28/(24*60)</f>
-        <v>42949.4131944444</v>
+        <v>42949.4131944445</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>3</v>
@@ -1478,7 +1485,7 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <f aca="false">A29+E29/(24*60)</f>
-        <v>42949.4215277777</v>
+        <v>42949.4215277778</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>4</v>
@@ -1532,7 +1539,7 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <f aca="false">A31+E31/(24*60)</f>
-        <v>42949.4368055555</v>
+        <v>42949.4368055556</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>6</v>
@@ -1618,7 +1625,7 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <f aca="false">A34+E34/(24*60)</f>
-        <v>42949.4555555555</v>
+        <v>42949.4555555556</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>8</v>
@@ -1704,7 +1711,7 @@
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <f aca="false">A37+E37/(24*60)</f>
-        <v>42949.4763888888</v>
+        <v>42949.4763888889</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>10</v>
@@ -1790,7 +1797,7 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <f aca="false">A40+E40/(24*60)</f>
-        <v>42950.4027777777</v>
+        <v>42950.4027777778</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>1</v>
@@ -1871,7 +1878,7 @@
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <f aca="false">A43+E43/(24*60)</f>
-        <v>42950.4215277777</v>
+        <v>42950.4215277778</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>4</v>
@@ -1925,7 +1932,7 @@
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <f aca="false">A45+E45/(24*60)</f>
-        <v>42950.4368055555</v>
+        <v>42950.4368055556</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>6</v>
@@ -2183,7 +2190,7 @@
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <f aca="false">A54+E54/(24*60)</f>
-        <v>42951.4027777777</v>
+        <v>42951.4027777778</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>1</v>
@@ -2264,7 +2271,7 @@
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <f aca="false">A57+E57/(24*60)</f>
-        <v>42951.4215277777</v>
+        <v>42951.4215277778</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>4</v>
@@ -2318,7 +2325,7 @@
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <f aca="false">A59+E59/(24*60)</f>
-        <v>42951.4368055555</v>
+        <v>42951.4368055556</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>6</v>
@@ -2404,7 +2411,7 @@
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <f aca="false">A62+E62/(24*60)</f>
-        <v>42951.4555555555</v>
+        <v>42951.4555555556</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>8</v>
@@ -2969,7 +2976,7 @@
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <f aca="false">A82+E82/(24*60)</f>
-        <v>42954.4027777777</v>
+        <v>42954.4027777778</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>1</v>
@@ -3050,7 +3057,7 @@
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <f aca="false">A85+E85/(24*60)</f>
-        <v>42954.4215277777</v>
+        <v>42954.4215277778</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>4</v>
@@ -3104,7 +3111,7 @@
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <f aca="false">A87+E87/(24*60)</f>
-        <v>42954.4368055555</v>
+        <v>42954.4368055556</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>6</v>
@@ -3190,7 +3197,7 @@
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <f aca="false">A90+E90/(24*60)</f>
-        <v>42954.4555555555</v>
+        <v>42954.4555555556</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>8</v>
@@ -3362,7 +3369,7 @@
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <f aca="false">A96+E96/(24*60)</f>
-        <v>42955.4027777777</v>
+        <v>42955.4027777778</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>1</v>
@@ -3443,7 +3450,7 @@
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <f aca="false">A99+E99/(24*60)</f>
-        <v>42955.4215277777</v>
+        <v>42955.4215277778</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>4</v>
@@ -3497,7 +3504,7 @@
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <f aca="false">A101+E101/(24*60)</f>
-        <v>42955.4368055555</v>
+        <v>42955.4368055556</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>6</v>
@@ -3583,7 +3590,7 @@
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <f aca="false">A104+E104/(24*60)</f>
-        <v>42955.4555555555</v>
+        <v>42955.4555555556</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>8</v>
@@ -3809,7 +3816,7 @@
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <f aca="false">A112+E112/(24*60)</f>
-        <v>42956.4118055555</v>
+        <v>42956.4118055556</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>3</v>
@@ -3874,7 +3881,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>48</v>
@@ -3895,7 +3902,7 @@
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <f aca="false">A115+E115/(24*60)</f>
-        <v>42956.4638888889</v>
+        <v>42956.5055555555</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>24</v>
@@ -3922,7 +3929,7 @@
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <f aca="false">A116+E116/(24*60)</f>
-        <v>42956.4652777777</v>
+        <v>42956.5069444444</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>27</v>
@@ -3945,7 +3952,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>42958.4097222222</v>
+        <v>42958.5868055556</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>39</v>
@@ -3981,7 +3988,7 @@
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <f aca="false">A118+E118/(24*60)</f>
-        <v>42958.4166666666</v>
+        <v>42958.59375</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
@@ -4008,7 +4015,7 @@
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <f aca="false">A119+E119/(24*60)</f>
-        <v>42958.4201388889</v>
+        <v>42958.5972222222</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>2</v>
@@ -4035,7 +4042,7 @@
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <f aca="false">A120+E120/(24*60)</f>
-        <v>42958.4270833333</v>
+        <v>42958.6041666667</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>3</v>
@@ -4062,7 +4069,7 @@
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <f aca="false">A121+E121/(24*60)</f>
-        <v>42958.4354166666</v>
+        <v>42958.6125</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>4</v>
@@ -4089,7 +4096,7 @@
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <f aca="false">A122+E122/(24*60)</f>
-        <v>42958.4423611111</v>
+        <v>42958.6194444444</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>5</v>
@@ -4116,7 +4123,7 @@
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <f aca="false">A123+E123/(24*60)</f>
-        <v>42958.4506944444</v>
+        <v>42958.6277777778</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>6</v>
@@ -4143,7 +4150,7 @@
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <f aca="false">A124+E124/(24*60)</f>
-        <v>42958.4576388889</v>
+        <v>42958.6347222222</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>20</v>
@@ -4175,7 +4182,7 @@
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <f aca="false">A125+E125/(24*60)</f>
-        <v>42958.4611111111</v>
+        <v>42958.6381944444</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>7</v>
@@ -4202,7 +4209,7 @@
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <f aca="false">A126+E126/(24*60)</f>
-        <v>42958.4694444444</v>
+        <v>42958.6465277778</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>8</v>
@@ -4229,7 +4236,7 @@
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <f aca="false">A127+E127/(24*60)</f>
-        <v>42958.475</v>
+        <v>42958.6520833333</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>9</v>
@@ -4256,7 +4263,7 @@
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <f aca="false">A128+E128/(24*60)</f>
-        <v>42958.4888888889</v>
+        <v>42958.6659722222</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>24</v>
@@ -4288,7 +4295,7 @@
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <f aca="false">A129+E129/(24*60)</f>
-        <v>42958.4902777777</v>
+        <v>42958.6673611111</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>10</v>
@@ -4315,7 +4322,7 @@
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <f aca="false">A130+E130/(24*60)</f>
-        <v>42958.4972222222</v>
+        <v>42958.6743055556</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>27</v>
@@ -4373,7 +4380,8 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>42959.4166666667</v>
+        <f aca="false">A132+E132/(24*60)</f>
+        <v>42959.4166666666</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>1</v>
@@ -4427,7 +4435,7 @@
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <f aca="false">A134+E134/(24*60)</f>
-        <v>42959.4270833334</v>
+        <v>42959.4270833333</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>3</v>
@@ -4454,7 +4462,7 @@
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <f aca="false">A135+E135/(24*60)</f>
-        <v>42959.4354166667</v>
+        <v>42959.4354166666</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>4</v>
@@ -4508,7 +4516,7 @@
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <f aca="false">A137+E137/(24*60)</f>
-        <v>42959.4506944445</v>
+        <v>42959.4506944444</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>6</v>
@@ -4594,7 +4602,7 @@
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <f aca="false">A140+E140/(24*60)</f>
-        <v>42959.4694444445</v>
+        <v>42959.4694444444</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>8</v>
@@ -4707,7 +4715,7 @@
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <f aca="false">A144+E144/(24*60)</f>
-        <v>42959.4972222223</v>
+        <v>42959.4972222222</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>27</v>
@@ -4765,6 +4773,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
+        <f aca="false">A146+E146/(24*60)</f>
         <v>42960.4930555556</v>
       </c>
       <c r="D147" s="0" t="n">
@@ -4819,7 +4828,7 @@
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <f aca="false">A148+E148/(24*60)</f>
-        <v>42960.5034722223</v>
+        <v>42960.5034722222</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>3</v>
@@ -4846,7 +4855,7 @@
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <f aca="false">A149+E149/(24*60)</f>
-        <v>42960.5118055556</v>
+        <v>42960.5118055555</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>4</v>
@@ -4900,7 +4909,7 @@
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <f aca="false">A151+E151/(24*60)</f>
-        <v>42960.5270833334</v>
+        <v>42960.5270833333</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>6</v>
@@ -4986,7 +4995,7 @@
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <f aca="false">A154+E154/(24*60)</f>
-        <v>42960.5458333334</v>
+        <v>42960.5458333333</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>8</v>
@@ -5157,7 +5166,8 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
-        <v>42961.4027777778</v>
+        <f aca="false">A160+E160/(24*60)</f>
+        <v>42961.4027777777</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>1</v>
@@ -5211,7 +5221,7 @@
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <f aca="false">A162+E162/(24*60)</f>
-        <v>42961.4131944445</v>
+        <v>42961.4131944444</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>3</v>
@@ -5238,7 +5248,7 @@
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <f aca="false">A163+E163/(24*60)</f>
-        <v>42961.4215277778</v>
+        <v>42961.4215277777</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>4</v>
@@ -5292,7 +5302,7 @@
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <f aca="false">A165+E165/(24*60)</f>
-        <v>42961.4368055556</v>
+        <v>42961.4368055555</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>6</v>
@@ -5378,7 +5388,7 @@
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <f aca="false">A168+E168/(24*60)</f>
-        <v>42961.4555555556</v>
+        <v>42961.4555555555</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>8</v>
@@ -5464,7 +5474,7 @@
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <f aca="false">A171+E171/(24*60)</f>
-        <v>42961.4763888889</v>
+        <v>42961.4763888888</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>10</v>
@@ -5491,7 +5501,7 @@
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <f aca="false">A172+E172/(24*60)</f>
-        <v>42961.4833333334</v>
+        <v>42961.4833333333</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>27</v>
@@ -5549,6 +5559,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
+        <f aca="false">A174+E174/(24*60)</f>
         <v>42963.4027777778</v>
       </c>
       <c r="D175" s="0" t="n">
@@ -5603,7 +5614,7 @@
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <f aca="false">A176+E176/(24*60)</f>
-        <v>42963.4131944445</v>
+        <v>42963.4131944444</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>3</v>
@@ -5630,7 +5641,7 @@
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <f aca="false">A177+E177/(24*60)</f>
-        <v>42963.4215277778</v>
+        <v>42963.4215277777</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>4</v>
@@ -5684,7 +5695,7 @@
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <f aca="false">A179+E179/(24*60)</f>
-        <v>42963.4368055556</v>
+        <v>42963.4368055555</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>6</v>
@@ -5770,7 +5781,7 @@
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <f aca="false">A182+E182/(24*60)</f>
-        <v>42963.4555555556</v>
+        <v>42963.4555555555</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>8</v>
@@ -5883,7 +5894,7 @@
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <f aca="false">A186+E186/(24*60)</f>
-        <v>42963.4833333334</v>
+        <v>42963.4833333333</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>27</v>
@@ -6088,6 +6099,9 @@
       <c r="D194" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="E194" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="F194" s="0" t="s">
         <v>47</v>
       </c>
@@ -6109,7 +6123,8 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
-        <v>42965.7361111111</v>
+        <f aca="false">A194+E194/(24*60)</f>
+        <v>42965.7361111112</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>1</v>
@@ -6136,7 +6151,7 @@
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <f aca="false">A195+E195/(24*60)</f>
-        <v>42965.7395833333</v>
+        <v>42965.7395833334</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>2</v>
@@ -6190,7 +6205,7 @@
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <f aca="false">A197+E197/(24*60)</f>
-        <v>42965.7506944444</v>
+        <v>42965.7506944445</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>20</v>
@@ -6228,7 +6243,7 @@
         <v>4</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G199" s="0" t="s">
         <v>48</v>
@@ -6249,7 +6264,7 @@
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <f aca="false">A199+E199/(24*60)</f>
-        <v>42965.7958333333</v>
+        <v>42965.8201388889</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>24</v>
@@ -6276,7 +6291,7 @@
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <f aca="false">A200+E200/(24*60)</f>
-        <v>42965.7972222222</v>
+        <v>42965.8215277778</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>27</v>
@@ -6583,7 +6598,7 @@
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <f aca="false">A211+E211/(24*60)</f>
-        <v>42967.5006944445</v>
+        <v>42967.5006944444</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>3</v>
@@ -6826,7 +6841,7 @@
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <f aca="false">A220+E220/(24*60)</f>
-        <v>42967.5659722223</v>
+        <v>42967.5659722222</v>
       </c>
       <c r="D221" s="0" t="s">
         <v>27</v>
@@ -6992,7 +7007,7 @@
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <f aca="false">A226+E226/(24*60)</f>
-        <v>42969.6805555555</v>
+        <v>42969.6805555556</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>5</v>
@@ -7181,7 +7196,7 @@
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <f aca="false">A233+E233/(24*60)</f>
-        <v>42969.7291666666</v>
+        <v>42969.7291666667</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>27</v>
@@ -7347,7 +7362,7 @@
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <f aca="false">A239+E239/(24*60)</f>
-        <v>42970.6805555555</v>
+        <v>42970.6805555556</v>
       </c>
       <c r="D240" s="0" t="n">
         <v>5</v>
@@ -7455,7 +7470,7 @@
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <f aca="false">A243+E243/(24*60)</f>
-        <v>42970.7055555555</v>
+        <v>42970.7055555556</v>
       </c>
       <c r="D244" s="0" t="n">
         <v>8</v>
@@ -7868,7 +7883,7 @@
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <f aca="false">A258+E258/(24*60)</f>
-        <v>42972.6805555555</v>
+        <v>42972.6805555556</v>
       </c>
       <c r="D259" s="0" t="n">
         <v>5</v>
@@ -8277,7 +8292,7 @@
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <f aca="false">A273+E273/(24*60)</f>
-        <v>42973.4833333334</v>
+        <v>42973.4833333333</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>20</v>
@@ -8385,7 +8400,7 @@
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <f aca="false">A277+E277/(24*60)</f>
-        <v>42973.5194444445</v>
+        <v>42973.5194444444</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>24</v>
@@ -8412,7 +8427,7 @@
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
         <f aca="false">A278+E278/(24*60)</f>
-        <v>42973.5208333334</v>
+        <v>42973.5208333333</v>
       </c>
       <c r="D279" s="0" t="n">
         <v>10</v>
@@ -8937,7 +8952,7 @@
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
         <f aca="false">A297+E297/(24*60)</f>
-        <v>42978.8506944444</v>
+        <v>42978.8506944445</v>
       </c>
       <c r="D298" s="0" t="n">
         <v>3</v>
@@ -10500,6 +10515,7 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
+        <f aca="false">A354+E354/(24*60)</f>
         <v>42991.65625</v>
       </c>
       <c r="D355" s="0" t="n">
@@ -10527,7 +10543,7 @@
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
         <f aca="false">A355+E355/(24*60)</f>
-        <v>42991.6597222222</v>
+        <v>42991.6597222223</v>
       </c>
       <c r="D356" s="0" t="n">
         <v>2</v>
@@ -10581,7 +10597,7 @@
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <f aca="false">A357+E357/(24*60)</f>
-        <v>42991.6736111111</v>
+        <v>42991.6736111112</v>
       </c>
       <c r="D358" s="0" t="n">
         <v>4</v>
@@ -10608,7 +10624,7 @@
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
         <f aca="false">A358+E358/(24*60)</f>
-        <v>42991.6819444444</v>
+        <v>42991.6819444445</v>
       </c>
       <c r="D359" s="0" t="n">
         <v>5</v>
@@ -10716,7 +10732,7 @@
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
         <f aca="false">A362+E362/(24*60)</f>
-        <v>42991.7069444444</v>
+        <v>42991.7069444445</v>
       </c>
       <c r="D363" s="0" t="n">
         <v>8</v>
@@ -10824,7 +10840,7 @@
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
         <f aca="false">A366+E366/(24*60)</f>
-        <v>42991.7361111111</v>
+        <v>42991.7361111112</v>
       </c>
       <c r="D367" s="0" t="s">
         <v>27</v>
@@ -10847,7 +10863,7 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
-        <v>42992.6493055556</v>
+        <v>42992.6354166667</v>
       </c>
       <c r="B368" s="0" t="s">
         <v>36</v>
@@ -10859,7 +10875,7 @@
         <v>13</v>
       </c>
       <c r="E368" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F368" s="0" t="s">
         <v>86</v>
@@ -10882,6 +10898,7 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
+        <f aca="false">A368+E368/(24*60)</f>
         <v>42992.65625</v>
       </c>
       <c r="D369" s="0" t="n">
@@ -12252,7 +12269,7 @@
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
         <f aca="false">A418+E418/(24*60)</f>
-        <v>43001.5868055555</v>
+        <v>43001.5868055556</v>
       </c>
       <c r="D419" s="0" t="s">
         <v>20</v>
@@ -12306,7 +12323,7 @@
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
         <f aca="false">A420+E420/(24*60)</f>
-        <v>43001.6527777777</v>
+        <v>43001.6527777778</v>
       </c>
       <c r="D421" s="0" t="s">
         <v>27</v>
@@ -14089,7 +14106,7 @@
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="n">
         <f aca="false">A485+E485/(24*60)</f>
-        <v>43015.4861111112</v>
+        <v>43015.4861111111</v>
       </c>
       <c r="D486" s="0" t="s">
         <v>20</v>
@@ -14116,7 +14133,7 @@
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="n">
         <f aca="false">A486+E486/(24*60)</f>
-        <v>43015.4895833334</v>
+        <v>43015.4895833333</v>
       </c>
       <c r="D487" s="0" t="n">
         <v>3</v>
@@ -16362,7 +16379,7 @@
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="n">
         <f aca="false">A568+E568/(24*60)</f>
-        <v>43029.5243055555</v>
+        <v>43029.5243055556</v>
       </c>
       <c r="D569" s="0" t="n">
         <v>3</v>
@@ -17790,7 +17807,7 @@
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="n">
         <f aca="false">A620+E620/(24*60)</f>
-        <v>43042.8645833334</v>
+        <v>43042.8645833333</v>
       </c>
       <c r="D621" s="0" t="n">
         <v>3</v>
@@ -17817,7 +17834,7 @@
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="n">
         <f aca="false">A621+E621/(24*60)</f>
-        <v>43042.9305555556</v>
+        <v>43042.9305555555</v>
       </c>
       <c r="D622" s="0" t="s">
         <v>27</v>
@@ -17983,7 +18000,7 @@
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="n">
         <f aca="false">A627+E627/(24*60)</f>
-        <v>43046.6993055555</v>
+        <v>43046.6993055556</v>
       </c>
       <c r="D628" s="0" t="n">
         <v>5</v>
@@ -18913,7 +18930,7 @@
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="n">
         <f aca="false">A661+E661/(24*60)</f>
-        <v>43051.6680555555</v>
+        <v>43051.6680555556</v>
       </c>
       <c r="D662" s="0" t="s">
         <v>27</v>
@@ -19384,7 +19401,7 @@
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="n">
         <f aca="false">A678+E678/(24*60)</f>
-        <v>43060.6180555555</v>
+        <v>43060.6180555556</v>
       </c>
       <c r="D679" s="0" t="n">
         <v>2</v>
@@ -19465,7 +19482,7 @@
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="n">
         <f aca="false">A681+E681/(24*60)</f>
-        <v>43060.6402777777</v>
+        <v>43060.6402777778</v>
       </c>
       <c r="D682" s="0" t="n">
         <v>5</v>
@@ -19519,7 +19536,7 @@
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="n">
         <f aca="false">A683+E683/(24*60)</f>
-        <v>43060.6493055555</v>
+        <v>43060.6493055556</v>
       </c>
       <c r="D684" s="0" t="n">
         <v>6</v>
@@ -19573,7 +19590,7 @@
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="n">
         <f aca="false">A685+E685/(24*60)</f>
-        <v>43060.6680555555</v>
+        <v>43060.6680555556</v>
       </c>
       <c r="D686" s="0" t="n">
         <v>8</v>
@@ -20461,15 +20478,15 @@
   </sheetPr>
   <dimension ref="A1:K740"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A598" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B296" activeCellId="0" sqref="B296"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A250" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A111" activeCellId="0" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="9" min="7" style="0" width="23.3522267206478"/>
@@ -20829,7 +20846,7 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <f aca="false">A12+E12/(24*60)</f>
-        <v>42947.8680555555</v>
+        <v>42947.8680555556</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>27</v>
@@ -20996,7 +21013,7 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <f aca="false">A18+E18/(24*60)</f>
-        <v>42948.6402777777</v>
+        <v>42948.6402777778</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>20</v>
@@ -21167,7 +21184,7 @@
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <f aca="false">A24+E24/(24*60)</f>
-        <v>42948.6805555555</v>
+        <v>42948.6805555556</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>27</v>
@@ -21830,7 +21847,7 @@
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <f aca="false">A48+E48/(24*60)</f>
-        <v>42950.4555555556</v>
+        <v>42950.4555555555</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>8</v>
@@ -22056,7 +22073,7 @@
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <f aca="false">A56+E56/(24*60)</f>
-        <v>42951.4131944445</v>
+        <v>42951.4131944444</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>3</v>
@@ -22444,7 +22461,7 @@
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <f aca="false">A70+E70/(24*60)</f>
-        <v>42953.5034722223</v>
+        <v>42953.5034722222</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>3</v>
@@ -22471,7 +22488,7 @@
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <f aca="false">A71+E71/(24*60)</f>
-        <v>42953.5118055556</v>
+        <v>42953.5118055555</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>4</v>
@@ -22525,7 +22542,7 @@
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <f aca="false">A73+E73/(24*60)</f>
-        <v>42953.5270833334</v>
+        <v>42953.5270833333</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>6</v>
@@ -22606,7 +22623,7 @@
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <f aca="false">A76+E76/(24*60)</f>
-        <v>42953.5458333334</v>
+        <v>42953.5458333333</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>8</v>
@@ -23220,7 +23237,7 @@
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <f aca="false">A98+E98/(24*60)</f>
-        <v>42955.4131944445</v>
+        <v>42955.4131944444</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>3</v>
@@ -23524,7 +23541,7 @@
         <v>31</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>13</v>
@@ -23608,7 +23625,7 @@
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <f aca="false">A112+E112/(24*60)</f>
-        <v>42956.4118055555</v>
+        <v>42956.4118055556</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>3</v>
@@ -23672,7 +23689,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>48</v>
@@ -23693,7 +23710,7 @@
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <f aca="false">A115+E115/(24*60)</f>
-        <v>42956.4638888889</v>
+        <v>42956.5055555555</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>24</v>
@@ -23720,7 +23737,7 @@
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <f aca="false">A116+E116/(24*60)</f>
-        <v>42956.4652777777</v>
+        <v>42956.5069444444</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>27</v>
@@ -23743,7 +23760,7 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>42958.3888888889</v>
+        <v>42958.5868055556</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>39</v>
@@ -23779,7 +23796,7 @@
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <f aca="false">A118+E118/(24*60)</f>
-        <v>42958.4027777778</v>
+        <v>42958.6006944444</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>1</v>
@@ -23806,7 +23823,7 @@
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <f aca="false">A119+E119/(24*60)</f>
-        <v>42958.40625</v>
+        <v>42958.6041666667</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>2</v>
@@ -23833,7 +23850,7 @@
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <f aca="false">A120+E120/(24*60)</f>
-        <v>42958.4131944445</v>
+        <v>42958.6111111111</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>3</v>
@@ -23860,7 +23877,7 @@
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <f aca="false">A121+E121/(24*60)</f>
-        <v>42958.4215277778</v>
+        <v>42958.6194444444</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>4</v>
@@ -23887,7 +23904,7 @@
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <f aca="false">A122+E122/(24*60)</f>
-        <v>42958.4284722222</v>
+        <v>42958.6263888889</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>5</v>
@@ -23914,7 +23931,7 @@
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <f aca="false">A123+E123/(24*60)</f>
-        <v>42958.4368055556</v>
+        <v>42958.6347222222</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>6</v>
@@ -23941,7 +23958,7 @@
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <f aca="false">A124+E124/(24*60)</f>
-        <v>42958.44375</v>
+        <v>42958.6416666667</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>20</v>
@@ -23968,7 +23985,7 @@
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <f aca="false">A125+E125/(24*60)</f>
-        <v>42958.4472222222</v>
+        <v>42958.6451388889</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>7</v>
@@ -23995,7 +24012,7 @@
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <f aca="false">A126+E126/(24*60)</f>
-        <v>42958.4555555556</v>
+        <v>42958.6534722222</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>8</v>
@@ -24022,7 +24039,7 @@
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <f aca="false">A127+E127/(24*60)</f>
-        <v>42958.4611111111</v>
+        <v>42958.6590277778</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>9</v>
@@ -24049,7 +24066,7 @@
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <f aca="false">A128+E128/(24*60)</f>
-        <v>42958.475</v>
+        <v>42958.6729166667</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>24</v>
@@ -24081,7 +24098,7 @@
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <f aca="false">A129+E129/(24*60)</f>
-        <v>42958.4763888889</v>
+        <v>42958.6743055556</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>10</v>
@@ -24108,7 +24125,7 @@
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <f aca="false">A130+E130/(24*60)</f>
-        <v>42958.4833333333</v>
+        <v>42958.68125</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>27</v>
@@ -24221,7 +24238,7 @@
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <f aca="false">A134+E134/(24*60)</f>
-        <v>42959.4270833334</v>
+        <v>42959.4270833333</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>3</v>
@@ -24236,13 +24253,13 @@
         <v>17</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24302,7 +24319,7 @@
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <f aca="false">A137+E137/(24*60)</f>
-        <v>42959.4506944445</v>
+        <v>42959.4506944444</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>6</v>
@@ -24329,7 +24346,7 @@
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <f aca="false">A138+E138/(24*60)</f>
-        <v>42959.4645833334</v>
+        <v>42959.4645833333</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>20</v>
@@ -24414,7 +24431,7 @@
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <f aca="false">A141+E141/(24*60)</f>
-        <v>42959.4819444445</v>
+        <v>42959.4819444444</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>9</v>
@@ -24441,7 +24458,7 @@
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <f aca="false">A142+E142/(24*60)</f>
-        <v>42959.4958333334</v>
+        <v>42959.4958333333</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>24</v>
@@ -24613,7 +24630,7 @@
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <f aca="false">A148+E148/(24*60)</f>
-        <v>42960.5034722223</v>
+        <v>42960.5034722222</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>3</v>
@@ -24694,7 +24711,7 @@
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <f aca="false">A151+E151/(24*60)</f>
-        <v>42960.5270833334</v>
+        <v>42960.5270833333</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>6</v>
@@ -24779,7 +24796,7 @@
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <f aca="false">A154+E154/(24*60)</f>
-        <v>42960.5458333334</v>
+        <v>42960.5458333333</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>8</v>
@@ -25023,10 +25040,10 @@
         <v>17</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25171,7 +25188,7 @@
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <f aca="false">A168+E168/(24*60)</f>
-        <v>42961.4555555556</v>
+        <v>42961.4555555555</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>8</v>
@@ -25415,10 +25432,10 @@
         <v>17</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25701,114 +25718,124 @@
       <c r="A188" s="1" t="n">
         <v>42964.6979166667</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D188" s="0" t="s">
+      <c r="D188" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="0" t="n">
+      <c r="E188" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F188" s="0" t="s">
+      <c r="F188" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G188" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H188" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I188" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J188" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="K188" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
+        <f aca="false">A188+E188/(24*60)</f>
         <v>42964.7048611111</v>
       </c>
-      <c r="D189" s="0" t="n">
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E189" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G189" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H189" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="I189" s="0" t="s">
+      <c r="E189" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I189" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J189" s="0" t="s">
+      <c r="J189" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K189" s="0" t="s">
+      <c r="K189" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <f aca="false">A189+E189/(24*60)</f>
         <v>42964.7152777778</v>
       </c>
-      <c r="D190" s="0" t="n">
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E190" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G190" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H190" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="I190" s="0" t="s">
+      <c r="E190" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I190" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J190" s="0" t="s">
+      <c r="J190" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K190" s="0" t="s">
+      <c r="K190" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <f aca="false">A190+E190/(24*60)</f>
-        <v>42964.7256944444</v>
-      </c>
-      <c r="D191" s="0" t="n">
+        <v>42964.7256944445</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E191" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G191" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H191" s="0" t="s">
+      <c r="E191" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H191" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I191" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J191" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K191" s="0" t="s">
+      <c r="I191" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K191" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -25817,26 +25844,29 @@
         <f aca="false">A191+E191/(24*60)</f>
         <v>42964.7361111111</v>
       </c>
-      <c r="D192" s="0" t="n">
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E192" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G192" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="H192" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="I192" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="J192" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="K192" s="0" t="s">
-        <v>151</v>
+      <c r="E192" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25844,53 +25874,60 @@
         <f aca="false">A192+E192/(24*60)</f>
         <v>42964.7465277778</v>
       </c>
-      <c r="D193" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E193" s="0" t="n">
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E193" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G193" s="0" t="str">
+      <c r="F193" s="2"/>
+      <c r="G193" s="2" t="str">
         <f aca="false">$D193</f>
         <v>all up</v>
       </c>
-      <c r="H193" s="0" t="str">
+      <c r="H193" s="2" t="str">
         <f aca="false">$D193</f>
         <v>all up</v>
       </c>
-      <c r="I193" s="0" t="str">
+      <c r="I193" s="2" t="str">
         <f aca="false">$D193</f>
         <v>all up</v>
       </c>
-      <c r="J193" s="0" t="str">
+      <c r="J193" s="2" t="str">
         <f aca="false">$D193</f>
         <v>all up</v>
       </c>
-      <c r="K193" s="0" t="s">
+      <c r="K193" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <f aca="false">A193+E193/(24*60)</f>
-        <v>42964.7479166666</v>
-      </c>
-      <c r="D194" s="0" t="s">
+        <v>42964.7479166667</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G194" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H194" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I194" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J194" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K194" s="0" t="s">
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K194" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -25929,9 +25966,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
-        <v>42965.7361111111</v>
+        <f aca="false">A195+E195/(24*60)</f>
+        <v>42965.7430555556</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>1</v>
@@ -25955,10 +25993,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <f aca="false">A196+E196/(24*60)</f>
-        <v>42965.7395833333</v>
+        <v>42965.7465277778</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>2</v>
@@ -25985,7 +26023,7 @@
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <f aca="false">A197+E197/(24*60)</f>
-        <v>42965.74375</v>
+        <v>42965.7506944445</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>3</v>
@@ -26012,7 +26050,7 @@
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <f aca="false">A198+E198/(24*60)</f>
-        <v>42965.7506944444</v>
+        <v>42965.7576388889</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>20</v>
@@ -26043,13 +26081,13 @@
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <f aca="false">A199+E199/(24*60)</f>
-        <v>42965.7541666667</v>
+        <v>42965.7611111111</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G200" s="0" t="s">
         <v>48</v>
@@ -26070,7 +26108,7 @@
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <f aca="false">A200+E200/(24*60)</f>
-        <v>42965.7958333333</v>
+        <v>42965.8270833334</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>24</v>
@@ -26097,7 +26135,7 @@
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <f aca="false">A201+E201/(24*60)</f>
-        <v>42965.7972222222</v>
+        <v>42965.8284722223</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>27</v>
@@ -26153,8 +26191,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
+        <f aca="false">A203+E203/(24*60)</f>
         <v>42966.5798611111</v>
       </c>
       <c r="D204" s="0" t="n">
@@ -26179,7 +26218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <f aca="false">A204+E204/(24*60)</f>
         <v>42966.5902777778</v>
@@ -26209,7 +26248,7 @@
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <f aca="false">A205+E205/(24*60)</f>
-        <v>42966.6006944444</v>
+        <v>42966.6006944445</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>3</v>
@@ -26294,7 +26333,7 @@
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <f aca="false">A208+E208/(24*60)</f>
-        <v>42966.6229166666</v>
+        <v>42966.6229166667</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>27</v>
@@ -26406,7 +26445,7 @@
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <f aca="false">A212+E212/(24*60)</f>
-        <v>42967.5006944445</v>
+        <v>42967.5006944444</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>3</v>
@@ -26635,19 +26674,19 @@
         <v>8</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26819,7 +26858,7 @@
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <f aca="false">A227+E227/(24*60)</f>
-        <v>42969.6805555555</v>
+        <v>42969.6805555556</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>5</v>
@@ -27012,7 +27051,7 @@
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <f aca="false">A234+E234/(24*60)</f>
-        <v>42969.7291666666</v>
+        <v>42969.7291666667</v>
       </c>
       <c r="D235" s="0" t="s">
         <v>27</v>
@@ -27178,7 +27217,7 @@
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <f aca="false">A240+E240/(24*60)</f>
-        <v>42970.6805555555</v>
+        <v>42970.6805555556</v>
       </c>
       <c r="D241" s="0" t="n">
         <v>5</v>
@@ -27214,19 +27253,19 @@
         <v>23</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27259,7 +27298,7 @@
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <f aca="false">A243+E243/(24*60)</f>
-        <v>42970.7055555555</v>
+        <v>42970.7055555556</v>
       </c>
       <c r="D244" s="0" t="n">
         <v>7</v>
@@ -27349,19 +27388,19 @@
         <v>8</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I247" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K247" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27672,7 +27711,7 @@
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <f aca="false">A258+E258/(24*60)</f>
-        <v>42972.6805555555</v>
+        <v>42972.6805555556</v>
       </c>
       <c r="D259" s="0" t="n">
         <v>5</v>
@@ -27847,19 +27886,19 @@
         <v>8</v>
       </c>
       <c r="G265" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28094,19 +28133,19 @@
         <v>23</v>
       </c>
       <c r="G274" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I274" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J274" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K274" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28166,7 +28205,7 @@
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <f aca="false">A276+E276/(24*60)</f>
-        <v>42973.5194444445</v>
+        <v>42973.5194444444</v>
       </c>
       <c r="D277" s="0" t="s">
         <v>24</v>
@@ -28193,7 +28232,7 @@
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <f aca="false">A277+E277/(24*60)</f>
-        <v>42973.5208333334</v>
+        <v>42973.5208333333</v>
       </c>
       <c r="D278" s="0" t="n">
         <v>9</v>
@@ -28374,13 +28413,13 @@
         <v>17</v>
       </c>
       <c r="I284" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J284" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K284" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28625,13 +28664,13 @@
         <v>17</v>
       </c>
       <c r="I293" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J293" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K293" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28834,7 +28873,7 @@
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
         <f aca="false">A300+E300/(24*60)</f>
-        <v>42978.8506944444</v>
+        <v>42978.8506944445</v>
       </c>
       <c r="D301" s="0" t="n">
         <v>3</v>
@@ -29476,19 +29515,19 @@
         <v>15</v>
       </c>
       <c r="G324" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I324" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J324" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K324" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29584,19 +29623,19 @@
         <v>8</v>
       </c>
       <c r="G328" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H328" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I328" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J328" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K328" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29810,13 +29849,13 @@
         <v>17</v>
       </c>
       <c r="I336" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J336" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K336" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30657,19 +30696,19 @@
         <v>15</v>
       </c>
       <c r="G367" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H367" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I367" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J367" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K367" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30765,19 +30804,19 @@
         <v>8</v>
       </c>
       <c r="G371" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H371" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I371" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J371" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K371" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30806,7 +30845,7 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
-        <v>42992.6423611111</v>
+        <v>42992.6354166667</v>
       </c>
       <c r="B373" s="0" t="s">
         <v>36</v>
@@ -30818,7 +30857,7 @@
         <v>13</v>
       </c>
       <c r="E373" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F373" s="0" t="s">
         <v>86</v>
@@ -30839,8 +30878,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
+        <f aca="false">A373+E373/(24*60)</f>
         <v>42992.65625</v>
       </c>
       <c r="D374" s="0" t="n">
@@ -30865,7 +30905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
         <f aca="false">A374+E374/(24*60)</f>
         <v>42992.6597222222</v>
@@ -30991,13 +31031,13 @@
         <v>17</v>
       </c>
       <c r="I379" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J379" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K379" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31398,19 +31438,19 @@
         <v>8</v>
       </c>
       <c r="G394" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H394" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I394" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J394" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K394" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31452,19 +31492,19 @@
         <v>15</v>
       </c>
       <c r="G396" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H396" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I396" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J396" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K396" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31757,19 +31797,19 @@
         <v>8</v>
       </c>
       <c r="G407" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H407" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I407" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J407" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K407" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32145,13 +32185,13 @@
         <v>17</v>
       </c>
       <c r="I421" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J421" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K421" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32323,7 +32363,7 @@
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="n">
         <f aca="false">A427+E427/(24*60)</f>
-        <v>43001.5868055555</v>
+        <v>43001.5868055556</v>
       </c>
       <c r="D428" s="0" t="s">
         <v>20</v>
@@ -32377,7 +32417,7 @@
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="n">
         <f aca="false">A429+E429/(24*60)</f>
-        <v>43001.6527777777</v>
+        <v>43001.6527777778</v>
       </c>
       <c r="D430" s="0" t="s">
         <v>27</v>
@@ -32498,13 +32538,13 @@
         <v>12</v>
       </c>
       <c r="G434" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I434" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J434" s="0" t="s">
         <v>17</v>
@@ -32606,19 +32646,19 @@
         <v>10</v>
       </c>
       <c r="G438" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H438" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I438" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J438" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K438" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32633,19 +32673,19 @@
         <v>10</v>
       </c>
       <c r="G439" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I439" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J439" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K439" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32911,19 +32951,19 @@
         <v>8</v>
       </c>
       <c r="G449" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H449" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I449" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J449" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K449" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33299,13 +33339,13 @@
         <v>17</v>
       </c>
       <c r="I463" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J463" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K463" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34098,13 +34138,13 @@
         <v>17</v>
       </c>
       <c r="I492" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J492" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K492" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34280,7 +34320,7 @@
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="n">
         <f aca="false">A498+E498/(24*60)</f>
-        <v>43015.4861111112</v>
+        <v>43015.4861111111</v>
       </c>
       <c r="D499" s="0" t="s">
         <v>20</v>
@@ -34307,7 +34347,7 @@
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="n">
         <f aca="false">A499+E499/(24*60)</f>
-        <v>43015.4895833334</v>
+        <v>43015.4895833333</v>
       </c>
       <c r="D500" s="0" t="n">
         <v>3</v>
@@ -34895,19 +34935,19 @@
         <v>8</v>
       </c>
       <c r="G521" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H521" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I521" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J521" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K521" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35054,7 +35094,7 @@
         <v>27</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G527" s="0" t="s">
         <v>28</v>
@@ -35259,13 +35299,13 @@
         <v>17</v>
       </c>
       <c r="I534" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J534" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K534" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36110,19 +36150,19 @@
         <v>15</v>
       </c>
       <c r="G565" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H565" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I565" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J565" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K565" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36215,7 +36255,7 @@
         <v>27</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G569" s="0" t="s">
         <v>28</v>
@@ -36420,13 +36460,13 @@
         <v>17</v>
       </c>
       <c r="I576" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J576" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K576" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36625,7 +36665,7 @@
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="n">
         <f aca="false">A583+E583/(24*60)</f>
-        <v>43029.5243055555</v>
+        <v>43029.5243055556</v>
       </c>
       <c r="D584" s="0" t="n">
         <v>3</v>
@@ -36827,19 +36867,19 @@
         <v>13</v>
       </c>
       <c r="G591" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H591" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I591" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J591" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K591" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37186,19 +37226,19 @@
         <v>10</v>
       </c>
       <c r="G604" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H604" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I604" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J604" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K604" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37264,7 +37304,7 @@
         <v>27</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G607" s="0" t="s">
         <v>28</v>
@@ -37575,19 +37615,19 @@
         <v>13</v>
       </c>
       <c r="G618" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H618" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J618" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K618" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37880,13 +37920,13 @@
         <v>10</v>
       </c>
       <c r="G629" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H629" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J629" s="0" t="s">
         <v>57</v>
@@ -38012,7 +38052,7 @@
         <v>27</v>
       </c>
       <c r="E634" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G634" s="0" t="s">
         <v>28</v>
@@ -38121,7 +38161,7 @@
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="n">
         <f aca="false">A637+E637/(24*60)</f>
-        <v>43042.8645833334</v>
+        <v>43042.8645833333</v>
       </c>
       <c r="D638" s="0" t="n">
         <v>3</v>
@@ -38148,7 +38188,7 @@
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="n">
         <f aca="false">A638+E638/(24*60)</f>
-        <v>43042.9305555556</v>
+        <v>43042.9305555555</v>
       </c>
       <c r="D639" s="0" t="s">
         <v>27</v>
@@ -38314,7 +38354,7 @@
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="n">
         <f aca="false">A644+E644/(24*60)</f>
-        <v>43046.6993055555</v>
+        <v>43046.6993055556</v>
       </c>
       <c r="D645" s="0" t="n">
         <v>5</v>
@@ -38350,19 +38390,19 @@
         <v>10</v>
       </c>
       <c r="G646" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H646" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I646" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J646" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K646" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39854,7 +39894,7 @@
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="n">
         <f aca="false">A700+E700/(24*60)</f>
-        <v>43060.6180555555</v>
+        <v>43060.6180555556</v>
       </c>
       <c r="D701" s="0" t="n">
         <v>2</v>
@@ -39935,7 +39975,7 @@
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="1" t="n">
         <f aca="false">A703+E703/(24*60)</f>
-        <v>43060.6402777777</v>
+        <v>43060.6402777778</v>
       </c>
       <c r="D704" s="0" t="n">
         <v>5</v>
@@ -39989,7 +40029,7 @@
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="n">
         <f aca="false">A705+E705/(24*60)</f>
-        <v>43060.6493055555</v>
+        <v>43060.6493055556</v>
       </c>
       <c r="D706" s="0" t="n">
         <v>6</v>
@@ -40043,7 +40083,7 @@
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="n">
         <f aca="false">A707+E707/(24*60)</f>
-        <v>43060.6680555555</v>
+        <v>43060.6680555556</v>
       </c>
       <c r="D708" s="0" t="n">
         <v>8</v>
@@ -40384,19 +40424,19 @@
         <v>15</v>
       </c>
       <c r="G720" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H720" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I720" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J720" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K720" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40489,7 +40529,7 @@
         <v>27</v>
       </c>
       <c r="E724" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G724" s="0" t="s">
         <v>28</v>
@@ -40694,13 +40734,13 @@
         <v>17</v>
       </c>
       <c r="I731" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J731" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K731" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/practices.xlsx
+++ b/practices.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="offensive" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7881" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7881" uniqueCount="168">
   <si>
     <t>date</t>
   </si>
@@ -161,7 +161,7 @@
     <t>fall camp practice #8</t>
   </si>
   <si>
-    <t>fall camp scrimmage 1</t>
+    <t>fall camp scrimmage #1</t>
   </si>
   <si>
     <t>full pads</t>
@@ -464,9 +464,6 @@
     <t>line games</t>
   </si>
   <si>
-    <t>fall camp scrimmage #1</t>
-  </si>
-  <si>
     <t>cougar full zone</t>
   </si>
   <si>
@@ -636,20 +633,20 @@
   </sheetPr>
   <dimension ref="A1:K717"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A111" activeCellId="0" sqref="A111"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C112" activeCellId="0" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -20484,13 +20481,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -23541,7 +23538,7 @@
         <v>31</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>13</v>
@@ -24253,13 +24250,13 @@
         <v>17</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25040,10 +25037,10 @@
         <v>17</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25432,10 +25429,10 @@
         <v>17</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25764,10 +25761,10 @@
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I189" s="2" t="s">
         <v>56</v>
@@ -25794,10 +25791,10 @@
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>57</v>
@@ -25854,19 +25851,19 @@
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26674,19 +26671,19 @@
         <v>8</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27253,19 +27250,19 @@
         <v>23</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27388,19 +27385,19 @@
         <v>8</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H247" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I247" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K247" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27886,19 +27883,19 @@
         <v>8</v>
       </c>
       <c r="G265" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H265" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28133,19 +28130,19 @@
         <v>23</v>
       </c>
       <c r="G274" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H274" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I274" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J274" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K274" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28413,13 +28410,13 @@
         <v>17</v>
       </c>
       <c r="I284" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J284" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K284" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28664,13 +28661,13 @@
         <v>17</v>
       </c>
       <c r="I293" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J293" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K293" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29515,19 +29512,19 @@
         <v>15</v>
       </c>
       <c r="G324" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H324" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I324" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J324" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K324" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29623,19 +29620,19 @@
         <v>8</v>
       </c>
       <c r="G328" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H328" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I328" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J328" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K328" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29849,13 +29846,13 @@
         <v>17</v>
       </c>
       <c r="I336" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J336" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K336" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30696,19 +30693,19 @@
         <v>15</v>
       </c>
       <c r="G367" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H367" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I367" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J367" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K367" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30804,19 +30801,19 @@
         <v>8</v>
       </c>
       <c r="G371" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H371" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I371" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J371" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K371" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31031,13 +31028,13 @@
         <v>17</v>
       </c>
       <c r="I379" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J379" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K379" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31438,19 +31435,19 @@
         <v>8</v>
       </c>
       <c r="G394" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H394" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I394" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J394" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K394" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31492,19 +31489,19 @@
         <v>15</v>
       </c>
       <c r="G396" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H396" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I396" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J396" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K396" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31797,19 +31794,19 @@
         <v>8</v>
       </c>
       <c r="G407" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H407" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I407" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J407" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K407" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32185,13 +32182,13 @@
         <v>17</v>
       </c>
       <c r="I421" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J421" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K421" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32538,13 +32535,13 @@
         <v>12</v>
       </c>
       <c r="G434" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I434" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J434" s="0" t="s">
         <v>17</v>
@@ -32646,19 +32643,19 @@
         <v>10</v>
       </c>
       <c r="G438" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H438" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I438" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J438" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K438" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32673,19 +32670,19 @@
         <v>10</v>
       </c>
       <c r="G439" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H439" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I439" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J439" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K439" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32951,19 +32948,19 @@
         <v>8</v>
       </c>
       <c r="G449" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H449" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I449" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J449" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K449" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33339,13 +33336,13 @@
         <v>17</v>
       </c>
       <c r="I463" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J463" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K463" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34138,13 +34135,13 @@
         <v>17</v>
       </c>
       <c r="I492" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J492" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K492" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34935,19 +34932,19 @@
         <v>8</v>
       </c>
       <c r="G521" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H521" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I521" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J521" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K521" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35094,7 +35091,7 @@
         <v>27</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G527" s="0" t="s">
         <v>28</v>
@@ -35299,13 +35296,13 @@
         <v>17</v>
       </c>
       <c r="I534" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J534" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K534" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36150,19 +36147,19 @@
         <v>15</v>
       </c>
       <c r="G565" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H565" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I565" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J565" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K565" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36255,7 +36252,7 @@
         <v>27</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G569" s="0" t="s">
         <v>28</v>
@@ -36460,13 +36457,13 @@
         <v>17</v>
       </c>
       <c r="I576" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J576" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K576" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36867,19 +36864,19 @@
         <v>13</v>
       </c>
       <c r="G591" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H591" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I591" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J591" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K591" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37226,19 +37223,19 @@
         <v>10</v>
       </c>
       <c r="G604" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H604" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I604" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J604" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K604" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37304,7 +37301,7 @@
         <v>27</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G607" s="0" t="s">
         <v>28</v>
@@ -37615,19 +37612,19 @@
         <v>13</v>
       </c>
       <c r="G618" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H618" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J618" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K618" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37920,13 +37917,13 @@
         <v>10</v>
       </c>
       <c r="G629" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H629" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I629" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J629" s="0" t="s">
         <v>57</v>
@@ -38052,7 +38049,7 @@
         <v>27</v>
       </c>
       <c r="E634" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G634" s="0" t="s">
         <v>28</v>
@@ -38390,19 +38387,19 @@
         <v>10</v>
       </c>
       <c r="G646" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H646" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I646" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J646" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K646" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40424,19 +40421,19 @@
         <v>15</v>
       </c>
       <c r="G720" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H720" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I720" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J720" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K720" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40529,7 +40526,7 @@
         <v>27</v>
       </c>
       <c r="E724" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G724" s="0" t="s">
         <v>28</v>
@@ -40734,13 +40731,13 @@
         <v>17</v>
       </c>
       <c r="I731" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J731" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K731" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
